--- a/data/trans_orig/P1202-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18943</v>
+        <v>18851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39054</v>
+        <v>39395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02674808088517175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01836039945083943</v>
+        <v>0.01827128180391294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03785334199329531</v>
+        <v>0.03818330423704169</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -765,19 +765,19 @@
         <v>55293</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41151</v>
+        <v>42177</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71884</v>
+        <v>71221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04204464505599761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03129111275989222</v>
+        <v>0.03207070533655638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05465964724565768</v>
+        <v>0.05415568541826066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -786,19 +786,19 @@
         <v>82890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66540</v>
+        <v>67623</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102387</v>
+        <v>103732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03531992369548827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02835296878393031</v>
+        <v>0.02881437461213413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04362778715219088</v>
+        <v>0.04420082104465523</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>75872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61185</v>
+        <v>61004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94539</v>
+        <v>94469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07353866002609427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05930409178230499</v>
+        <v>0.05912834147910921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09163241020288035</v>
+        <v>0.09156467167019552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -836,19 +836,19 @@
         <v>125642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104836</v>
+        <v>104995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147403</v>
+        <v>146401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09553689869878866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0797160300417437</v>
+        <v>0.07983738946296652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1120837009508011</v>
+        <v>0.1113219742027038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -857,19 +857,19 @@
         <v>201513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177058</v>
+        <v>174187</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231058</v>
+        <v>228686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0858659671193957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07544557701099761</v>
+        <v>0.07422206246123413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09845496475771406</v>
+        <v>0.09744450259618034</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>242111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>217522</v>
+        <v>217904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>270266</v>
+        <v>268081</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2346663762144172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2108332454163389</v>
+        <v>0.21120371177209</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2619560192530982</v>
+        <v>0.2598377185658438</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>410</v>
@@ -907,19 +907,19 @@
         <v>420388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>385158</v>
+        <v>389646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>457440</v>
+        <v>458472</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3196592655181986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2928708709730533</v>
+        <v>0.2962835457305425</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3478329431838393</v>
+        <v>0.3486180985669565</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>652</v>
@@ -928,19 +928,19 @@
         <v>662498</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>623964</v>
+        <v>620614</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>707824</v>
+        <v>708682</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2822944369325328</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2658748791219134</v>
+        <v>0.2644472451740223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3016080164640541</v>
+        <v>0.3019735419785052</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>168101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>144918</v>
+        <v>146628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194019</v>
+        <v>191527</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1629318343520262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1404619338059986</v>
+        <v>0.142119516514216</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.188053626214708</v>
+        <v>0.1856380231491203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>215</v>
@@ -978,19 +978,19 @@
         <v>215981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190041</v>
+        <v>189239</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243313</v>
+        <v>246227</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1642298278308295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1445051761735639</v>
+        <v>0.1438959091261419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1850126817062901</v>
+        <v>0.1872286737100135</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>388</v>
@@ -999,19 +999,19 @@
         <v>384081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>348588</v>
+        <v>350490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>416843</v>
+        <v>422153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1636592000496341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1485354995910804</v>
+        <v>0.1493457865801742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1776193055519557</v>
+        <v>0.1798819214297497</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>293523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>262992</v>
+        <v>265173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>319274</v>
+        <v>323851</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2844980549226543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2549053895516846</v>
+        <v>0.2570198451953332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3094570800707232</v>
+        <v>0.3138930007921016</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -1049,19 +1049,19 @@
         <v>314669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>285806</v>
+        <v>283758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345956</v>
+        <v>344640</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2392717112163461</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2173241038073194</v>
+        <v>0.2157671902828636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2630619120174348</v>
+        <v>0.2620612059420307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>609</v>
@@ -1070,19 +1070,19 @@
         <v>608192</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>568874</v>
+        <v>566517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>652776</v>
+        <v>651486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2591542519086935</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2424004273349427</v>
+        <v>0.2413962846186423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2781515548915917</v>
+        <v>0.2776019603129999</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>224520</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201185</v>
+        <v>200791</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>251273</v>
+        <v>251706</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2176169935996363</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1949992172431335</v>
+        <v>0.19461743487659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.243546605171701</v>
+        <v>0.2439666982179733</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -1120,19 +1120,19 @@
         <v>183140</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>159061</v>
+        <v>156625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>209415</v>
+        <v>209437</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1392576516798395</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1209482762401807</v>
+        <v>0.1190965454399334</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1592370360651935</v>
+        <v>0.1592543685476579</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>402</v>
@@ -1141,19 +1141,19 @@
         <v>407660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>370959</v>
+        <v>372662</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>446600</v>
+        <v>445710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1737062202942556</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1580676190892953</v>
+        <v>0.1587936478280335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1902986482550932</v>
+        <v>0.1899195012017667</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>18886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11616</v>
+        <v>11660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28716</v>
+        <v>29737</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01115267126781527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006859538201374396</v>
+        <v>0.006885603563109651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01695772438257586</v>
+        <v>0.01756011490771363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1266,19 +1266,19 @@
         <v>22284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14386</v>
+        <v>14481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33138</v>
+        <v>33528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01403563548975651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009061139757204404</v>
+        <v>0.009120866953872719</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02087183709669741</v>
+        <v>0.02111788448584494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1287,19 +1287,19 @@
         <v>41170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29404</v>
+        <v>30507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56164</v>
+        <v>54381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01254769875283689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008961722275798206</v>
+        <v>0.00929779560060074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.017117564463282</v>
+        <v>0.016574147120962</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>50167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37620</v>
+        <v>38018</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68223</v>
+        <v>65432</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02962464035540058</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02221538851959337</v>
+        <v>0.02245079295251184</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04028731752653192</v>
+        <v>0.03863938462343087</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>67</v>
@@ -1337,19 +1337,19 @@
         <v>69436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54054</v>
+        <v>54710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86572</v>
+        <v>86979</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04373422794733521</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03404620920609558</v>
+        <v>0.03445934463519061</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05452776602239856</v>
+        <v>0.05478418291643519</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -1358,19 +1358,19 @@
         <v>119602</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>99980</v>
+        <v>99447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>144296</v>
+        <v>142392</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03645207940000139</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03047155712323716</v>
+        <v>0.03030924213432925</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04397805805290578</v>
+        <v>0.04339780174843187</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>186371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161439</v>
+        <v>160784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213634</v>
+        <v>211357</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.110056152041551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09533374281165517</v>
+        <v>0.09494648768230148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1261557040286144</v>
+        <v>0.1248112119547589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -1408,19 +1408,19 @@
         <v>269791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241361</v>
+        <v>241603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>300477</v>
+        <v>299219</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1699282579514608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1520216703592498</v>
+        <v>0.1521742425452708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1892564590424296</v>
+        <v>0.1884636395688272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>444</v>
@@ -1429,19 +1429,19 @@
         <v>456161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419223</v>
+        <v>417845</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>494309</v>
+        <v>496573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1390274561925991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1277695099997008</v>
+        <v>0.1273495867729108</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1506541078452752</v>
+        <v>0.1513441110150914</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>265158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237108</v>
+        <v>236908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298689</v>
+        <v>298188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.156581967657348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1400180449215604</v>
+        <v>0.1398997269000205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1763828989061248</v>
+        <v>0.1760867835009241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1479,19 +1479,19 @@
         <v>335891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>305115</v>
+        <v>302687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367919</v>
+        <v>370229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2115615123840735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1921773434990529</v>
+        <v>0.1906479603927387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2317344664196883</v>
+        <v>0.2331897504120479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -1500,19 +1500,19 @@
         <v>601048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>558668</v>
+        <v>555986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>647898</v>
+        <v>650448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1831858274708121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1702693675779378</v>
+        <v>0.1694519209255954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.197464375841974</v>
+        <v>0.1982417454670944</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>643023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>600577</v>
+        <v>599620</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>679909</v>
+        <v>685539</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3797203510237557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3546547462779812</v>
+        <v>0.3540895389078324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4015019632351592</v>
+        <v>0.404827038079065</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>565</v>
@@ -1550,19 +1550,19 @@
         <v>570487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>534986</v>
+        <v>535125</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>611151</v>
+        <v>608813</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3593229296993427</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3369620760065238</v>
+        <v>0.3370495910658044</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3849349608514069</v>
+        <v>0.3834623764806698</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1202</v>
@@ -1571,19 +1571,19 @@
         <v>1213511</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1156643</v>
+        <v>1160688</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1268279</v>
+        <v>1271620</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3698503140824155</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3525183383451406</v>
+        <v>0.3537513041421957</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3865423788173698</v>
+        <v>0.3875607093343006</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>529808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>492531</v>
+        <v>492089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>570468</v>
+        <v>572556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3128642176541295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2908508073074037</v>
+        <v>0.2905900653338236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3368748346518641</v>
+        <v>0.3381074965902686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>312</v>
@@ -1621,19 +1621,19 @@
         <v>319785</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288258</v>
+        <v>290799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>353147</v>
+        <v>357811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2014174365280313</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1815598744716718</v>
+        <v>0.1831606696287828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2224302614899646</v>
+        <v>0.22536818265341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>821</v>
@@ -1642,19 +1642,19 @@
         <v>849593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>796327</v>
+        <v>795403</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>897699</v>
+        <v>898537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.258936624101335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2427021362047577</v>
+        <v>0.2424207914898249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2735982175582871</v>
+        <v>0.273853406600429</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>3750</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10563</v>
+        <v>11793</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00680090933313454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001798199837445944</v>
+        <v>0.001804366352917215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01915583874180873</v>
+        <v>0.02138649906889203</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1767,19 +1767,19 @@
         <v>4779</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1584</v>
+        <v>1275</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11789</v>
+        <v>12156</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01003125729173514</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003324026198178542</v>
+        <v>0.002675752326992667</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0247458510480943</v>
+        <v>0.02551571633491991</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1788,19 +1788,19 @@
         <v>8529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3372</v>
+        <v>3860</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17106</v>
+        <v>17372</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008298229873995686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003280293673941034</v>
+        <v>0.003755956654951685</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01664253800879927</v>
+        <v>0.01690167529712431</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>17230</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10513</v>
+        <v>10507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26101</v>
+        <v>27298</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0312481638084732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01906499971269827</v>
+        <v>0.01905569223648299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04733585708378334</v>
+        <v>0.04950532465392678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1838,19 +1838,19 @@
         <v>23995</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15340</v>
+        <v>14847</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36112</v>
+        <v>36720</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05036507015303073</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03219820604523225</v>
+        <v>0.0311632500265234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07580083759951423</v>
+        <v>0.07707589319716458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -1859,19 +1859,19 @@
         <v>41225</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29675</v>
+        <v>29502</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57258</v>
+        <v>55675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04010917101706657</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0288718297094261</v>
+        <v>0.0287036241407934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05570859776354079</v>
+        <v>0.05416831053766635</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>67468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53332</v>
+        <v>54143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83613</v>
+        <v>86493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.122356687562851</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09671903882533504</v>
+        <v>0.09818991151395554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1516356505817576</v>
+        <v>0.1568592919486306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -1909,19 +1909,19 @@
         <v>93316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76597</v>
+        <v>76651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110866</v>
+        <v>111704</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1958724068312829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1607786542259917</v>
+        <v>0.16089177675358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2327096944570174</v>
+        <v>0.2344697218851116</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -1930,19 +1930,19 @@
         <v>160784</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>138165</v>
+        <v>137419</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>185747</v>
+        <v>185490</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1564324583304343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.134425403438893</v>
+        <v>0.1336998974551895</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1807194539200057</v>
+        <v>0.1804690299520052</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>70715</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56889</v>
+        <v>54587</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88907</v>
+        <v>87949</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1282438477711856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1031697274769397</v>
+        <v>0.09899616030091482</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1612361752256293</v>
+        <v>0.1594997683381726</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>76</v>
@@ -1980,19 +1980,19 @@
         <v>79881</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>65770</v>
+        <v>63608</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98016</v>
+        <v>98406</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.167673006066917</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1380521968911408</v>
+        <v>0.1335146884506813</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2057376636012405</v>
+        <v>0.2065558730980788</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>142</v>
@@ -2001,19 +2001,19 @@
         <v>150596</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128015</v>
+        <v>127765</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>174822</v>
+        <v>175315</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1465199249559604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1245501119904381</v>
+        <v>0.1243066713810767</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1700899241113007</v>
+        <v>0.1705699294544378</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>208668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>185787</v>
+        <v>184497</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233807</v>
+        <v>233921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3784267653687562</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3369328345241144</v>
+        <v>0.3345932806358964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4240182360071405</v>
+        <v>0.4242250211798972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -2051,19 +2051,19 @@
         <v>185947</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>165063</v>
+        <v>165848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207654</v>
+        <v>206127</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3903068866179436</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3464710123456177</v>
+        <v>0.3481191289567951</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4358710641951608</v>
+        <v>0.4326647628532959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>379</v>
@@ -2072,19 +2072,19 @@
         <v>394614</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>362831</v>
+        <v>362348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>423716</v>
+        <v>425467</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3839334011251208</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3530101581311967</v>
+        <v>0.3525401129148393</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4122472124293797</v>
+        <v>0.4139509369632924</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>183577</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>161284</v>
+        <v>162819</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>206667</v>
+        <v>208761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3329236261555993</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2924953567407999</v>
+        <v>0.2952781944392522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3747995667165398</v>
+        <v>0.3785954338901639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>83</v>
@@ -2122,19 +2122,19 @@
         <v>88494</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73545</v>
+        <v>72082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106604</v>
+        <v>107396</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1857513730390907</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1543718462248277</v>
+        <v>0.151301444938035</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2237648174180838</v>
+        <v>0.2254273069190532</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>257</v>
@@ -2143,19 +2143,19 @@
         <v>272071</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>243299</v>
+        <v>241886</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>300258</v>
+        <v>304504</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2647068146974222</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2367135258528697</v>
+        <v>0.2353393483232956</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.292131128511502</v>
+        <v>0.2962617015539347</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>50233</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38397</v>
+        <v>37771</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64900</v>
+        <v>65645</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01533102107908242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01171881068039539</v>
+        <v>0.01152784385408854</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01980754324958998</v>
+        <v>0.02003492256229338</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -2268,19 +2268,19 @@
         <v>82356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65327</v>
+        <v>65597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102241</v>
+        <v>102511</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02437160184631858</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01933203111709647</v>
+        <v>0.01941209366121278</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03025604788926049</v>
+        <v>0.03033581930869354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -2289,19 +2289,19 @@
         <v>132589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111973</v>
+        <v>112855</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156794</v>
+        <v>157054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01992102959881899</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01682350786343972</v>
+        <v>0.01695602251501052</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02355768068663258</v>
+        <v>0.02359673954807128</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>143269</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119831</v>
+        <v>119828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167853</v>
+        <v>167443</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04372557415370382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03657243031272205</v>
+        <v>0.03657151237376247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.051228750546131</v>
+        <v>0.05110365643170833</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>209</v>
@@ -2339,19 +2339,19 @@
         <v>219072</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>191348</v>
+        <v>189893</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>249170</v>
+        <v>248064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06482957989157541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05662529903691208</v>
+        <v>0.05619459997950382</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0737364777164576</v>
+        <v>0.07340929521926891</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -2360,19 +2360,19 @@
         <v>362341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>328662</v>
+        <v>326606</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>400808</v>
+        <v>400034</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05444032452554458</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04938029068271393</v>
+        <v>0.04907127868391848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06021994335148324</v>
+        <v>0.06010358957355763</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>495950</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>456751</v>
+        <v>456341</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>536492</v>
+        <v>537457</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1513636559990195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1394003485012218</v>
+        <v>0.1392750497318413</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1637370812922158</v>
+        <v>0.164031792203314</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>760</v>
@@ -2410,19 +2410,19 @@
         <v>783494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>734074</v>
+        <v>735744</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>832417</v>
+        <v>833807</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2318581226844633</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2172331952231665</v>
+        <v>0.2177275491282941</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2463358517280316</v>
+        <v>0.2467471712852428</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1252</v>
@@ -2431,19 +2431,19 @@
         <v>1279444</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1212762</v>
+        <v>1222773</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1341950</v>
+        <v>1348356</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1922316375358728</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1822129821831635</v>
+        <v>0.1837170404575194</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2016229208672524</v>
+        <v>0.202585463251968</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>503973</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>464213</v>
+        <v>464408</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>543508</v>
+        <v>551127</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1538124143408308</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.141677596842484</v>
+        <v>0.1417372519248465</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1658784223633619</v>
+        <v>0.1682037984949152</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>619</v>
@@ -2481,19 +2481,19 @@
         <v>631753</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>584043</v>
+        <v>588346</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>677688</v>
+        <v>678126</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1869534522684754</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1728348596935335</v>
+        <v>0.1741082675041841</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.200547176002593</v>
+        <v>0.2006767368515849</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1109</v>
@@ -2502,19 +2502,19 @@
         <v>1135726</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1070269</v>
+        <v>1072315</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1195842</v>
+        <v>1194591</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1706385066414592</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1608038398634705</v>
+        <v>0.1611113411879095</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1796707805835391</v>
+        <v>0.1794828475484238</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>1145214</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1090405</v>
+        <v>1090444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1199993</v>
+        <v>1197578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3495189159342565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3327911563086537</v>
+        <v>0.3328031671557846</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3662374859349002</v>
+        <v>0.3655005189123668</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1057</v>
@@ -2552,19 +2552,19 @@
         <v>1071103</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1021075</v>
+        <v>1016349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1132773</v>
+        <v>1124805</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3169697486378649</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3021648447861782</v>
+        <v>0.3007663360229064</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3352195678080376</v>
+        <v>0.3328617601252229</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2190</v>
@@ -2573,19 +2573,19 @@
         <v>2216317</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2138205</v>
+        <v>2133971</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2292697</v>
+        <v>2287406</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3329933232707619</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3212572282798263</v>
+        <v>0.3206210547064332</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3444691165564921</v>
+        <v>0.3436741946625193</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>937905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>886574</v>
+        <v>886968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>991397</v>
+        <v>985958</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2862484184931069</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.27058206120103</v>
+        <v>0.2707022683840842</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3025739937696517</v>
+        <v>0.3009139598580416</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>574</v>
@@ -2623,19 +2623,19 @@
         <v>591419</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>545426</v>
+        <v>548168</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>633389</v>
+        <v>638159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1750174946713024</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1614068459002451</v>
+        <v>0.1622183057385967</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.187437613591148</v>
+        <v>0.1888493101079443</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1480</v>
@@ -2644,19 +2644,19 @@
         <v>1529324</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1464698</v>
+        <v>1460290</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1601465</v>
+        <v>1598300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2297751784275425</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2200652897878668</v>
+        <v>0.2194031253345536</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2406140124565565</v>
+        <v>0.2401385803170303</v>
       </c>
     </row>
     <row r="31">
@@ -2987,19 +2987,19 @@
         <v>29586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19585</v>
+        <v>18480</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42920</v>
+        <v>43729</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03038617940546787</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02011430545289295</v>
+        <v>0.01897913782396461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04408064151113703</v>
+        <v>0.04491111668654255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -3008,19 +3008,19 @@
         <v>92524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75240</v>
+        <v>74482</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115357</v>
+        <v>113602</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06921096648163466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05628203609160972</v>
+        <v>0.05571462242034731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08629048703684397</v>
+        <v>0.0849778466578547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -3029,19 +3029,19 @@
         <v>122111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100000</v>
+        <v>102039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147004</v>
+        <v>147976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05284981489290246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04328006878524732</v>
+        <v>0.04416266446093673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06362361904427669</v>
+        <v>0.06404432527525517</v>
       </c>
     </row>
     <row r="5">
@@ -3058,19 +3058,19 @@
         <v>66928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51230</v>
+        <v>52275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87197</v>
+        <v>86274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06873732487515101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05261470581468097</v>
+        <v>0.05368818544959757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08955384257225132</v>
+        <v>0.08860613994307028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -3079,19 +3079,19 @@
         <v>107006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>89588</v>
+        <v>86192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128860</v>
+        <v>127350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0800438432284504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06701449105600217</v>
+        <v>0.06447388277158579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09639120967955464</v>
+        <v>0.09526177669446524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>159</v>
@@ -3100,19 +3100,19 @@
         <v>173934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147732</v>
+        <v>148472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201266</v>
+        <v>202712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07527916389212323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06393855869074061</v>
+        <v>0.06425890652485194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08710858259761431</v>
+        <v>0.08773437071261947</v>
       </c>
     </row>
     <row r="6">
@@ -3129,19 +3129,19 @@
         <v>200772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>175791</v>
+        <v>178092</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>228587</v>
+        <v>230999</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2061994632280214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1805435142360331</v>
+        <v>0.1829065546752286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2347662252614619</v>
+        <v>0.2372441137210431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>345</v>
@@ -3150,19 +3150,19 @@
         <v>369940</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>336405</v>
+        <v>336272</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>404797</v>
+        <v>405178</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2767257414382384</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2516407740339787</v>
+        <v>0.2515413281119677</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3028002922120327</v>
+        <v>0.3030849085141255</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>530</v>
@@ -3171,19 +3171,19 @@
         <v>570712</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>526993</v>
+        <v>524811</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>613060</v>
+        <v>613617</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2470052660490818</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2280836927677762</v>
+        <v>0.227139286780297</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2653336288635784</v>
+        <v>0.2655749985120148</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>125920</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105876</v>
+        <v>104981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147803</v>
+        <v>147440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1293243619143556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1087381394975813</v>
+        <v>0.1078185258380821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1517983257824549</v>
+        <v>0.1514253765902926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -3221,19 +3221,19 @@
         <v>194431</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168945</v>
+        <v>165928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224417</v>
+        <v>219981</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1454404162328009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1263756845344893</v>
+        <v>0.1241193345104645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1678708061662471</v>
+        <v>0.1645521206476993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>302</v>
@@ -3242,19 +3242,19 @@
         <v>320352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>288721</v>
+        <v>286857</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>356416</v>
+        <v>354403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1386489505848621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1249589075889996</v>
+        <v>0.1241524390729427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1542575928524924</v>
+        <v>0.153386409217646</v>
       </c>
     </row>
     <row r="8">
@@ -3271,19 +3271,19 @@
         <v>290336</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>260348</v>
+        <v>264885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>320050</v>
+        <v>320272</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2981845584899196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2673863805649019</v>
+        <v>0.2720457298129403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3287016055609285</v>
+        <v>0.3289301670242147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>317</v>
@@ -3292,19 +3292,19 @@
         <v>340111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306135</v>
+        <v>308302</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>372787</v>
+        <v>375179</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2544128554114138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2289978635881718</v>
+        <v>0.2306185880378935</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2788558014490524</v>
+        <v>0.2806449025391209</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>587</v>
@@ -3313,19 +3313,19 @@
         <v>630447</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>585641</v>
+        <v>588619</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>671446</v>
+        <v>679719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2728586866263912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2534666140823577</v>
+        <v>0.2547554507035976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2906033361161018</v>
+        <v>0.2941838941452573</v>
       </c>
     </row>
     <row r="9">
@@ -3342,19 +3342,19 @@
         <v>260136</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>234465</v>
+        <v>234591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>289422</v>
+        <v>290231</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2671681120870846</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2408032486149646</v>
+        <v>0.2409327191475159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2972463055286189</v>
+        <v>0.2980769951155879</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>217</v>
@@ -3363,19 +3363,19 @@
         <v>232833</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>204171</v>
+        <v>204355</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>260493</v>
+        <v>263843</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1741661772074618</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1527258399477642</v>
+        <v>0.152863869508081</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1948562862710306</v>
+        <v>0.1973624446560053</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>465</v>
@@ -3384,19 +3384,19 @@
         <v>492969</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>456117</v>
+        <v>452196</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>534672</v>
+        <v>532635</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2133581179546392</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1974084087701915</v>
+        <v>0.1957114650141274</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.231407040528144</v>
+        <v>0.2305256866642449</v>
       </c>
     </row>
     <row r="10">
@@ -3488,19 +3488,19 @@
         <v>42861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31311</v>
+        <v>31657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58895</v>
+        <v>57460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02183659222431486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01595187897021332</v>
+        <v>0.01612852162264891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03000537313655656</v>
+        <v>0.02927408847227909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3509,19 +3509,19 @@
         <v>64446</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48714</v>
+        <v>49349</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83140</v>
+        <v>83618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03676652627337023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02779142668755952</v>
+        <v>0.02815359912006322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04743102282191662</v>
+        <v>0.04770393743875691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -3530,19 +3530,19 @@
         <v>107308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85933</v>
+        <v>88321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>131298</v>
+        <v>132370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02887972385447233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02312705448331445</v>
+        <v>0.02376987170019575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03533615977930054</v>
+        <v>0.03562480853254365</v>
       </c>
     </row>
     <row r="12">
@@ -3559,19 +3559,19 @@
         <v>36863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24689</v>
+        <v>25450</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51442</v>
+        <v>51461</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0187804697731508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01257839597955012</v>
+        <v>0.01296608466427899</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02620821550310308</v>
+        <v>0.02621799682305522</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -3580,19 +3580,19 @@
         <v>82133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64054</v>
+        <v>63978</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101631</v>
+        <v>102769</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0468566180058527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03654281203549346</v>
+        <v>0.03649933358397174</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05798004478232479</v>
+        <v>0.05862934431288486</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>104</v>
@@ -3601,19 +3601,19 @@
         <v>118996</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>96883</v>
+        <v>99765</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>143966</v>
+        <v>145558</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03202527092371208</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02607410201536078</v>
+        <v>0.02684966000753909</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03874543633689072</v>
+        <v>0.03917397194398677</v>
       </c>
     </row>
     <row r="13">
@@ -3630,19 +3630,19 @@
         <v>221043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192315</v>
+        <v>196126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>253449</v>
+        <v>254026</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1126144862231976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0979786024113137</v>
+        <v>0.09992044146054169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1291247915527876</v>
+        <v>0.1294183515351344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>249</v>
@@ -3651,19 +3651,19 @@
         <v>265820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>232771</v>
+        <v>237048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>296757</v>
+        <v>299917</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1516491942004049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1327951715291067</v>
+        <v>0.1352351235187066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1692990713117147</v>
+        <v>0.1711018316562189</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>457</v>
@@ -3672,19 +3672,19 @@
         <v>486862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>445148</v>
+        <v>450264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>528566</v>
+        <v>527602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1310289404012872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1198025989022386</v>
+        <v>0.1211792871842366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1422525874782662</v>
+        <v>0.1419931474428696</v>
       </c>
     </row>
     <row r="14">
@@ -3701,19 +3701,19 @@
         <v>278722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248384</v>
+        <v>247778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312625</v>
+        <v>310315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1420004630128476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1265441662035365</v>
+        <v>0.1262354963576442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.15927285733219</v>
+        <v>0.1580958004721189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -3722,19 +3722,19 @@
         <v>254499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224502</v>
+        <v>223355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286703</v>
+        <v>286308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1451910202837791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1280778510635588</v>
+        <v>0.1274233464982568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1635631228886177</v>
+        <v>0.1633379226947246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -3743,19 +3743,19 @@
         <v>533221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>484835</v>
+        <v>492386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>574953</v>
+        <v>577774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1435055945666034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1304834911456567</v>
+        <v>0.1325155432844229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.154736747064838</v>
+        <v>0.1554961504591159</v>
       </c>
     </row>
     <row r="15">
@@ -3772,19 +3772,19 @@
         <v>605901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>559267</v>
+        <v>565300</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>647122</v>
+        <v>653428</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3086879109982995</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2849292422281366</v>
+        <v>0.2880031517009632</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3296890444375793</v>
+        <v>0.3329017507495932</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>522</v>
@@ -3793,19 +3793,19 @@
         <v>556136</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>515608</v>
+        <v>515722</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>597975</v>
+        <v>596581</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3172739057032622</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2941527170862517</v>
+        <v>0.2942179742727312</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3411429718222751</v>
+        <v>0.3403476169521532</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1094</v>
@@ -3814,19 +3814,19 @@
         <v>1162036</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1103681</v>
+        <v>1102454</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1222788</v>
+        <v>1216271</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3127383167592488</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2970331335781624</v>
+        <v>0.2967028291100446</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3290884408324244</v>
+        <v>0.32733454539673</v>
       </c>
     </row>
     <row r="16">
@@ -3843,19 +3843,19 @@
         <v>777436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>732094</v>
+        <v>735957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>821420</v>
+        <v>820978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3960800777681897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3729798211384561</v>
+        <v>0.3749474812458185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4184886397549966</v>
+        <v>0.4182634118325567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>496</v>
@@ -3864,19 +3864,19 @@
         <v>529824</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>490676</v>
+        <v>490368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>569605</v>
+        <v>571559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3022627355333308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2799293436352452</v>
+        <v>0.2797535417503996</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3249577621159842</v>
+        <v>0.3260728317160292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1234</v>
@@ -3885,19 +3885,19 @@
         <v>1307260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1246184</v>
+        <v>1247651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1368918</v>
+        <v>1366161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3518221534946762</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3353848020356924</v>
+        <v>0.3357797414750505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3684163274523265</v>
+        <v>0.367674356574636</v>
       </c>
     </row>
     <row r="17">
@@ -3989,19 +3989,19 @@
         <v>5033</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1947</v>
+        <v>1933</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11160</v>
+        <v>11882</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01048041815073542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004053653523926312</v>
+        <v>0.004025898453414133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02323848856401908</v>
+        <v>0.02474154148447252</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -4010,19 +4010,19 @@
         <v>7032</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3042</v>
+        <v>3027</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13975</v>
+        <v>13263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01536746158073745</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006647223411695586</v>
+        <v>0.006616496914315062</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03054114372962916</v>
+        <v>0.02898571005963765</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -4031,19 +4031,19 @@
         <v>12065</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6865</v>
+        <v>6732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20123</v>
+        <v>20509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01286485173820324</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007319764703441286</v>
+        <v>0.007178292186568825</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02145772305252239</v>
+        <v>0.02186942888916961</v>
       </c>
     </row>
     <row r="19">
@@ -4060,19 +4060,19 @@
         <v>7654</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2348</v>
+        <v>3165</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16928</v>
+        <v>18541</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01593671052287811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00488914313849693</v>
+        <v>0.006590148835140269</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0352492034225502</v>
+        <v>0.03860808165869713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4081,19 +4081,19 @@
         <v>13093</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7436</v>
+        <v>6814</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24065</v>
+        <v>22719</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02861520477603018</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01625110002691005</v>
+        <v>0.01489091439898087</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05259317095063423</v>
+        <v>0.04965248421655035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -4102,19 +4102,19 @@
         <v>20747</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12019</v>
+        <v>12791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33044</v>
+        <v>33030</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.022122664867</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01281642109211339</v>
+        <v>0.01363950791075101</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03523496401939968</v>
+        <v>0.03522030064661091</v>
       </c>
     </row>
     <row r="20">
@@ -4131,19 +4131,19 @@
         <v>57264</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42536</v>
+        <v>43694</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74871</v>
+        <v>74796</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1192392394247145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08857251528595501</v>
+        <v>0.09098206595753305</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1559029384013871</v>
+        <v>0.155745011908718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4152,19 +4152,19 @@
         <v>64440</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49897</v>
+        <v>50581</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81712</v>
+        <v>82721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1408322334396025</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1090484647354739</v>
+        <v>0.1105443302884769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1785788243746039</v>
+        <v>0.1807839251610102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -4173,19 +4173,19 @@
         <v>121704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102582</v>
+        <v>101072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146821</v>
+        <v>144664</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1297746604661987</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1093849709582728</v>
+        <v>0.1077748098188444</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1565574663033289</v>
+        <v>0.1542575835517239</v>
       </c>
     </row>
     <row r="21">
@@ -4202,19 +4202,19 @@
         <v>75974</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60672</v>
+        <v>59237</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>96686</v>
+        <v>95994</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1581997321762978</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1263366780608134</v>
+        <v>0.1233484517867299</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.201327749574559</v>
+        <v>0.1998854712350322</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -4223,19 +4223,19 @@
         <v>67247</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52621</v>
+        <v>52716</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>85283</v>
+        <v>85092</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.146965503930677</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1150018759892694</v>
+        <v>0.1152094348648513</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1863831971329834</v>
+        <v>0.1859669472230137</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>124</v>
@@ -4244,19 +4244,19 @@
         <v>143221</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118189</v>
+        <v>121742</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>168970</v>
+        <v>168268</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1527184485450356</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1260264278162606</v>
+        <v>0.1298146738727619</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1801748263256889</v>
+        <v>0.1794258120697146</v>
       </c>
     </row>
     <row r="22">
@@ -4273,19 +4273,19 @@
         <v>155183</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132788</v>
+        <v>135506</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177301</v>
+        <v>176179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3231327500653799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2765007182315419</v>
+        <v>0.282161374541099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3691902643907267</v>
+        <v>0.3668538756878866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -4294,19 +4294,19 @@
         <v>153552</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>133405</v>
+        <v>131599</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175208</v>
+        <v>175790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3355830938983929</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.291553055627674</v>
+        <v>0.287605036435382</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3829132558767878</v>
+        <v>0.3841847435880953</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>281</v>
@@ -4315,19 +4315,19 @@
         <v>308734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>278313</v>
+        <v>279575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>341270</v>
+        <v>343011</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3292073877141283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2967686572432061</v>
+        <v>0.2981144077873587</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3639001115937184</v>
+        <v>0.3657575260494534</v>
       </c>
     </row>
     <row r="23">
@@ -4344,19 +4344,19 @@
         <v>179136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157073</v>
+        <v>155833</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>202273</v>
+        <v>200251</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3730111496599943</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3270685723615099</v>
+        <v>0.3244865829546308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4211880012763469</v>
+        <v>0.4169781965473319</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>136</v>
@@ -4365,19 +4365,19 @@
         <v>152203</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>130269</v>
+        <v>130956</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174612</v>
+        <v>175360</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3326365023745599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2846993619222219</v>
+        <v>0.2862001713326133</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3816098923677296</v>
+        <v>0.3832446410811358</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>306</v>
@@ -4386,19 +4386,19 @@
         <v>331340</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>303304</v>
+        <v>300497</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>363938</v>
+        <v>362304</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3533119866694342</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3234164672107665</v>
+        <v>0.3204241127928061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3880717615541786</v>
+        <v>0.3863295143412466</v>
       </c>
     </row>
     <row r="24">
@@ -4490,19 +4490,19 @@
         <v>77481</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60631</v>
+        <v>59087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97393</v>
+        <v>98185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02267680716233748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01774509822978394</v>
+        <v>0.01729341452025053</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0285045917092528</v>
+        <v>0.02873626809292465</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -4511,19 +4511,19 @@
         <v>164003</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>140323</v>
+        <v>140153</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>191514</v>
+        <v>192651</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04623344530127329</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03955816605759038</v>
+        <v>0.03951020575259138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05398908852141884</v>
+        <v>0.05430958095932178</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>218</v>
@@ -4532,19 +4532,19 @@
         <v>241483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211353</v>
+        <v>210848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275406</v>
+        <v>279509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03467587994608544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03034923174055791</v>
+        <v>0.03027675810916373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0395470053471272</v>
+        <v>0.04013617827801851</v>
       </c>
     </row>
     <row r="26">
@@ -4561,19 +4561,19 @@
         <v>111444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91164</v>
+        <v>90671</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136209</v>
+        <v>137889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03261706938570705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02668145797515606</v>
+        <v>0.0265371729292279</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0398651306741967</v>
+        <v>0.0403568141774539</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>183</v>
@@ -4582,19 +4582,19 @@
         <v>202233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>175074</v>
+        <v>176983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>233729</v>
+        <v>233839</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05701077684417636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04935453332606243</v>
+        <v>0.04989280067445578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06588996604442843</v>
+        <v>0.06592096513708842</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -4603,19 +4603,19 @@
         <v>313677</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>277119</v>
+        <v>276903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>349319</v>
+        <v>348772</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0450425211642371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03979291436007726</v>
+        <v>0.03976200024665312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05016052690856802</v>
+        <v>0.05008207291826945</v>
       </c>
     </row>
     <row r="27">
@@ -4632,19 +4632,19 @@
         <v>479078</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>437131</v>
+        <v>435092</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>519632</v>
+        <v>521746</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1402147370620965</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1279377831389004</v>
+        <v>0.1273410821833455</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1520839174534298</v>
+        <v>0.152702513505926</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>652</v>
@@ -4653,19 +4653,19 @@
         <v>700199</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>654250</v>
+        <v>657348</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>749671</v>
+        <v>751204</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.197391014746238</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1844375953079662</v>
+        <v>0.1853109837326483</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2113375155912474</v>
+        <v>0.2117694845521284</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1095</v>
@@ -4674,19 +4674,19 @@
         <v>1179278</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1117406</v>
+        <v>1118464</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1248840</v>
+        <v>1241336</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1693386856234081</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1604542054481757</v>
+        <v>0.1606060769903769</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1793275119766164</v>
+        <v>0.1782499260702086</v>
       </c>
     </row>
     <row r="28">
@@ -4703,19 +4703,19 @@
         <v>480617</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>439505</v>
+        <v>440643</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>522233</v>
+        <v>524246</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1406650330405294</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1286325878664087</v>
+        <v>0.128965692409945</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1528450345436437</v>
+        <v>0.1534342440101594</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>480</v>
@@ -4724,19 +4724,19 @@
         <v>516177</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>474196</v>
+        <v>472817</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>562501</v>
+        <v>564349</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1455139019714966</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.133679188463753</v>
+        <v>0.1332902589791279</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1585728306574182</v>
+        <v>0.1590938352336444</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>927</v>
@@ -4745,19 +4745,19 @@
         <v>996794</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>938220</v>
+        <v>937975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1054478</v>
+        <v>1064329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1431349071744519</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1347239357658752</v>
+        <v>0.1346887027716194</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1514179980937957</v>
+        <v>0.1528326241504696</v>
       </c>
     </row>
     <row r="29">
@@ -4774,19 +4774,19 @@
         <v>1051419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>995438</v>
+        <v>998139</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1109875</v>
+        <v>1107119</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3077250579558979</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2913407517903306</v>
+        <v>0.2921313442256097</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3248337124247325</v>
+        <v>0.3240270810902274</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>977</v>
@@ -4795,19 +4795,19 @@
         <v>1049798</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>993245</v>
+        <v>994760</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1110070</v>
+        <v>1105294</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.29594542982428</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2800027327217318</v>
+        <v>0.2804298289013373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3129363544402333</v>
+        <v>0.3115899704104556</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1962</v>
@@ -4816,19 +4816,19 @@
         <v>2101217</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2026068</v>
+        <v>2027028</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2187749</v>
+        <v>2178510</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3017248547654797</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2909337993430276</v>
+        <v>0.2910716626551819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3141503796279858</v>
+        <v>0.312823709462847</v>
       </c>
     </row>
     <row r="30">
@@ -4845,19 +4845,19 @@
         <v>1216708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1163571</v>
+        <v>1156145</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1276928</v>
+        <v>1276299</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3561012953934318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.340549380493907</v>
+        <v>0.3383757455302326</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3737260068961952</v>
+        <v>0.3735421763408141</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>849</v>
@@ -4866,19 +4866,19 @@
         <v>914860</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>861728</v>
+        <v>861987</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>967907</v>
+        <v>968516</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2579054313125358</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2429269866108122</v>
+        <v>0.2429999852302281</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2728598222843639</v>
+        <v>0.2730313585224575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2005</v>
@@ -4887,19 +4887,19 @@
         <v>2131569</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2050743</v>
+        <v>2052211</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2211947</v>
+        <v>2209067</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3060831513263378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2944770431633998</v>
+        <v>0.294687790139075</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3176250728158199</v>
+        <v>0.3172115587624055</v>
       </c>
     </row>
     <row r="31">
@@ -5230,19 +5230,19 @@
         <v>26436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18212</v>
+        <v>17404</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37675</v>
+        <v>36995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03509016578679727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02417481146332382</v>
+        <v>0.02310117528823141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05000890862195349</v>
+        <v>0.04910721334355622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -5251,19 +5251,19 @@
         <v>60038</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44999</v>
+        <v>45015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77910</v>
+        <v>76701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06048865132526717</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04533751834220069</v>
+        <v>0.04535324393087851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07849480933661564</v>
+        <v>0.07727684179884285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -5272,19 +5272,19 @@
         <v>86473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67215</v>
+        <v>68723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106351</v>
+        <v>106604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04952917251923166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03849877368489541</v>
+        <v>0.03936235368151126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0609144450613936</v>
+        <v>0.06105966096425382</v>
       </c>
     </row>
     <row r="5">
@@ -5301,19 +5301,19 @@
         <v>47674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35193</v>
+        <v>35086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60832</v>
+        <v>61674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06328145656046658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04671422636071836</v>
+        <v>0.04657249069094289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08074747345516176</v>
+        <v>0.08186478536870549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -5322,19 +5322,19 @@
         <v>123565</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103075</v>
+        <v>103575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147358</v>
+        <v>150634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1244929332094872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1038492850471095</v>
+        <v>0.1043529269582213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.148465319277461</v>
+        <v>0.151765872344562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>153</v>
@@ -5343,19 +5343,19 @@
         <v>171238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146101</v>
+        <v>148287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199634</v>
+        <v>199848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09808010320019472</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08368187613277484</v>
+        <v>0.08493427609500687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1143443462438175</v>
+        <v>0.1144669214769125</v>
       </c>
     </row>
     <row r="6">
@@ -5372,19 +5372,19 @@
         <v>168447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>147778</v>
+        <v>148027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>194031</v>
+        <v>194266</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2235942547647998</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1961584395491961</v>
+        <v>0.1964893133958516</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.257553647875253</v>
+        <v>0.2578661012130852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -5393,19 +5393,19 @@
         <v>255541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>228279</v>
+        <v>227991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>285581</v>
+        <v>285634</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2574605673497526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2299941420639639</v>
+        <v>0.2297035248203873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2877265667253128</v>
+        <v>0.2877798978783723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>405</v>
@@ -5414,19 +5414,19 @@
         <v>423988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>386934</v>
+        <v>384095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>460609</v>
+        <v>461064</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2428472104056471</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2216237969517319</v>
+        <v>0.2199978118289799</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2638229060567427</v>
+        <v>0.2640833848676912</v>
       </c>
     </row>
     <row r="7">
@@ -5443,19 +5443,19 @@
         <v>183580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159549</v>
+        <v>160842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204577</v>
+        <v>206320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2436819381550102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2117832125416837</v>
+        <v>0.2134989995202693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2715522602609989</v>
+        <v>0.2738663855942887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -5464,19 +5464,19 @@
         <v>223488</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196549</v>
+        <v>198656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>250984</v>
+        <v>252861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2251667545461906</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1980259772439268</v>
+        <v>0.2001483910830789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2528689086803825</v>
+        <v>0.2547603387101097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>394</v>
@@ -5485,19 +5485,19 @@
         <v>407068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373831</v>
+        <v>370861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447925</v>
+        <v>445148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2331560798169185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2141187022456779</v>
+        <v>0.2124176238425374</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2565576086676408</v>
+        <v>0.2549670160757355</v>
       </c>
     </row>
     <row r="8">
@@ -5514,19 +5514,19 @@
         <v>151327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>130742</v>
+        <v>130149</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172801</v>
+        <v>174582</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2008691418189048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1735452443092095</v>
+        <v>0.1727579813624123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2293736918280203</v>
+        <v>0.2317381930875753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>161</v>
@@ -5535,19 +5535,19 @@
         <v>175583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151053</v>
+        <v>151842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>200847</v>
+        <v>200563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1769021087545009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1521880490082494</v>
+        <v>0.1529828895295328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2023555820004808</v>
+        <v>0.2020698044568947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>312</v>
@@ -5556,19 +5556,19 @@
         <v>326910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296962</v>
+        <v>295965</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>363003</v>
+        <v>363741</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1872439139977717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1700906850274801</v>
+        <v>0.1695197811696518</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2079168004445091</v>
+        <v>0.2083397667184354</v>
       </c>
     </row>
     <row r="9">
@@ -5585,19 +5585,19 @@
         <v>175897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>155199</v>
+        <v>154386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>202255</v>
+        <v>200091</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2334830429140213</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2060085330388348</v>
+        <v>0.2049301299226302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2684699765849088</v>
+        <v>0.2655979230718912</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -5606,19 +5606,19 @@
         <v>154330</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133020</v>
+        <v>130465</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>181871</v>
+        <v>179006</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1554889848148015</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1340195297621362</v>
+        <v>0.1314454015334488</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1832372233788745</v>
+        <v>0.1803508256211536</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>306</v>
@@ -5627,19 +5627,19 @@
         <v>330226</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>295456</v>
+        <v>295495</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>364924</v>
+        <v>361858</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1891435200602363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1692278147939966</v>
+        <v>0.1692505625628564</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2090171654374807</v>
+        <v>0.207260873889729</v>
       </c>
     </row>
     <row r="10">
@@ -5731,19 +5731,19 @@
         <v>25189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16058</v>
+        <v>15622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39206</v>
+        <v>36834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01214943008913527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007745422801725533</v>
+        <v>0.007534832387615984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01891030276044589</v>
+        <v>0.01776632614643282</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5752,19 +5752,19 @@
         <v>41794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29189</v>
+        <v>30112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57008</v>
+        <v>57201</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02105189831423798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.014702600878906</v>
+        <v>0.01516779171443016</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02871580634416293</v>
+        <v>0.02881288031784788</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -5773,19 +5773,19 @@
         <v>66983</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51089</v>
+        <v>51633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86006</v>
+        <v>86200</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.016504153127343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01258805720128906</v>
+        <v>0.01272200045227826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02119140746319837</v>
+        <v>0.02123918583936222</v>
       </c>
     </row>
     <row r="12">
@@ -5802,19 +5802,19 @@
         <v>50210</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36180</v>
+        <v>35860</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65777</v>
+        <v>65899</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02421795403569836</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01745056550296304</v>
+        <v>0.017296520884312</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03172636136157351</v>
+        <v>0.0317854029448082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>67</v>
@@ -5823,19 +5823,19 @@
         <v>75044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59303</v>
+        <v>59205</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>92144</v>
+        <v>95135</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03780068722447476</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0298718266238937</v>
+        <v>0.02982213885692741</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04641383013144519</v>
+        <v>0.0479205045251345</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -5844,19 +5844,19 @@
         <v>125255</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103146</v>
+        <v>104448</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151091</v>
+        <v>150264</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03086207111013037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02541454146392621</v>
+        <v>0.02573537882950261</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03722807534276946</v>
+        <v>0.03702431142703255</v>
       </c>
     </row>
     <row r="13">
@@ -5873,19 +5873,19 @@
         <v>196216</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170176</v>
+        <v>167510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>224234</v>
+        <v>224256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09464111336281907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08208104385212099</v>
+        <v>0.08079561819740236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1081551849082165</v>
+        <v>0.1081659372658246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>236</v>
@@ -5894,19 +5894,19 @@
         <v>252799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222873</v>
+        <v>223475</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283486</v>
+        <v>285785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1273377636857334</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1122635964010162</v>
+        <v>0.1125670293772325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1427951819627295</v>
+        <v>0.1439532871328216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>422</v>
@@ -5915,19 +5915,19 @@
         <v>449015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>411499</v>
+        <v>413300</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492025</v>
+        <v>494181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1106349762818608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1013913034379017</v>
+        <v>0.1018349787357128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.121232379327395</v>
+        <v>0.1217636470877695</v>
       </c>
     </row>
     <row r="14">
@@ -5944,19 +5944,19 @@
         <v>382499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>349057</v>
+        <v>345391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>419689</v>
+        <v>418328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1844915614040827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1683611795679205</v>
+        <v>0.1665929899996401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2024292216044963</v>
+        <v>0.2017730944957105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -5965,19 +5965,19 @@
         <v>360359</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>326158</v>
+        <v>328540</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398746</v>
+        <v>396261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1815170026918461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.164289603841893</v>
+        <v>0.1654891127917902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2008529413689373</v>
+        <v>0.1996011492954212</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>709</v>
@@ -5986,19 +5986,19 @@
         <v>742859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>690347</v>
+        <v>692060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>797009</v>
+        <v>795011</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1830365290439387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1700979753554665</v>
+        <v>0.1705198866404276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1963788072648542</v>
+        <v>0.1958864971321055</v>
       </c>
     </row>
     <row r="15">
@@ -6015,19 +6015,19 @@
         <v>629835</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>587765</v>
+        <v>580727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>675849</v>
+        <v>672897</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3037894555268666</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2834978286996618</v>
+        <v>0.2801030490183471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3259832415822618</v>
+        <v>0.3245596072348753</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>573</v>
@@ -6036,19 +6036,19 @@
         <v>588198</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>549898</v>
+        <v>548044</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>630172</v>
+        <v>629258</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2962817438545098</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2769896691928485</v>
+        <v>0.2760560102809562</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3174247167982832</v>
+        <v>0.3169640794200952</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1162</v>
@@ -6057,19 +6057,19 @@
         <v>1218033</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1158552</v>
+        <v>1158588</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1276817</v>
+        <v>1279694</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3001169903006899</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2854611105291932</v>
+        <v>0.2854701515697793</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3146009717509134</v>
+        <v>0.3153099315848605</v>
       </c>
     </row>
     <row r="16">
@@ -6086,19 +6086,19 @@
         <v>789313</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>742580</v>
+        <v>745986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>834459</v>
+        <v>840269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.380710485581398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3581699773728197</v>
+        <v>0.3598129260295966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4024861772310415</v>
+        <v>0.4052885250719447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>648</v>
@@ -6107,19 +6107,19 @@
         <v>667071</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>625722</v>
+        <v>624894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>707901</v>
+        <v>706682</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3360109042291979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.315183155538139</v>
+        <v>0.3147658384742749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3565774516928787</v>
+        <v>0.3559636862627354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1387</v>
@@ -6128,19 +6128,19 @@
         <v>1456383</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1389609</v>
+        <v>1394404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1524318</v>
+        <v>1515573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3588452801360373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3423924383133711</v>
+        <v>0.3435738783913275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3755840335518157</v>
+        <v>0.3734292597667674</v>
       </c>
     </row>
     <row r="17">
@@ -6232,19 +6232,19 @@
         <v>8842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3996</v>
+        <v>4054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16698</v>
+        <v>16802</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01616875008852916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00730620996676204</v>
+        <v>0.007413004341702964</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03053231069972158</v>
+        <v>0.03072316947328606</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -6253,19 +6253,19 @@
         <v>5780</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2088</v>
+        <v>2111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13590</v>
+        <v>13783</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01054661550819193</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003809345187100598</v>
+        <v>0.003851772665696992</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0247962329827126</v>
+        <v>0.02514769007313028</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -6274,19 +6274,19 @@
         <v>14623</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7710</v>
+        <v>8366</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24955</v>
+        <v>24513</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01335464288576544</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007041435982890324</v>
+        <v>0.007640719982921545</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02279069488904576</v>
+        <v>0.02238737833099843</v>
       </c>
     </row>
     <row r="19">
@@ -6303,19 +6303,19 @@
         <v>7342</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3152</v>
+        <v>3128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14672</v>
+        <v>14387</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0134251271548067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005763362527802656</v>
+        <v>0.00571892471135012</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02682748120575615</v>
+        <v>0.02630642816912801</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6324,19 +6324,19 @@
         <v>10974</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5211</v>
+        <v>5389</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21180</v>
+        <v>20023</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0200222798581333</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009508210500990032</v>
+        <v>0.009832638706563878</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03864557343073231</v>
+        <v>0.03653341937550978</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -6345,19 +6345,19 @@
         <v>18316</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10545</v>
+        <v>10570</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30372</v>
+        <v>30086</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01672727061560054</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009630662018421285</v>
+        <v>0.00965327347134565</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02773794110374132</v>
+        <v>0.02747686842539786</v>
       </c>
     </row>
     <row r="20">
@@ -6374,19 +6374,19 @@
         <v>56245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43631</v>
+        <v>43615</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73032</v>
+        <v>73360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1028465939677703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07978087141096134</v>
+        <v>0.0797518709306119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.133541767246395</v>
+        <v>0.1341407103686836</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -6395,19 +6395,19 @@
         <v>68892</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53886</v>
+        <v>53976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86410</v>
+        <v>85755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1257001677973147</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09832003005200082</v>
+        <v>0.09848365560865727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1576622416816262</v>
+        <v>0.1564666024790272</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>121</v>
@@ -6416,19 +6416,19 @@
         <v>125138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107058</v>
+        <v>104538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148654</v>
+        <v>148413</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1142857379092082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09777412288427842</v>
+        <v>0.09547217362661138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1357627546025209</v>
+        <v>0.1355425011268966</v>
       </c>
     </row>
     <row r="21">
@@ -6445,19 +6445,19 @@
         <v>108027</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>89643</v>
+        <v>86433</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>130202</v>
+        <v>128259</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1975305945188724</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1639145060205511</v>
+        <v>0.1580461753804083</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2380795731869584</v>
+        <v>0.2345267306318883</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -6466,19 +6466,19 @@
         <v>109967</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90494</v>
+        <v>90430</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127901</v>
+        <v>129142</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2006433199501408</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1651131514102068</v>
+        <v>0.1649965366006268</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2333668630935457</v>
+        <v>0.2356308415675059</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>205</v>
@@ -6487,19 +6487,19 @@
         <v>217994</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>194929</v>
+        <v>192633</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>247979</v>
+        <v>243804</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1990886402986717</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1780242204466789</v>
+        <v>0.175927810716698</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2264738641000234</v>
+        <v>0.2226603474858945</v>
       </c>
     </row>
     <row r="22">
@@ -6516,19 +6516,19 @@
         <v>172619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152010</v>
+        <v>149423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197414</v>
+        <v>197240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3156404163109828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2779551520962808</v>
+        <v>0.2732245461332485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3609788059130295</v>
+        <v>0.3606595624235699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -6537,19 +6537,19 @@
         <v>176845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154209</v>
+        <v>156351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199474</v>
+        <v>202744</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.322668014183566</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2813677268529229</v>
+        <v>0.2852754860382276</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3639575720338481</v>
+        <v>0.3699234530940286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>327</v>
@@ -6558,19 +6558,19 @@
         <v>349464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>315796</v>
+        <v>317758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>380604</v>
+        <v>382590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3191580150999782</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.288409488207992</v>
+        <v>0.2902011734096079</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3475973064692666</v>
+        <v>0.3494114064734246</v>
       </c>
     </row>
     <row r="23">
@@ -6587,19 +6587,19 @@
         <v>193810</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>168001</v>
+        <v>173308</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>216857</v>
+        <v>218961</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3543885179590387</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3071964682139827</v>
+        <v>0.3168994619816172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3965313015139519</v>
+        <v>0.400377556108378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>171</v>
@@ -6608,19 +6608,19 @@
         <v>175612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151990</v>
+        <v>153024</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>197070</v>
+        <v>197117</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3204196027026533</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2773193803248533</v>
+        <v>0.2792048785969687</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3595713271095717</v>
+        <v>0.3596565469447373</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>344</v>
@@ -6629,19 +6629,19 @@
         <v>369423</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>339443</v>
+        <v>334243</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>407663</v>
+        <v>403634</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3373856931907759</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3100056576388449</v>
+        <v>0.3052570487272568</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3723096376756143</v>
+        <v>0.3686296950876601</v>
       </c>
     </row>
     <row r="24">
@@ -6733,19 +6733,19 @@
         <v>60467</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44901</v>
+        <v>46137</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77149</v>
+        <v>78399</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01792405383782683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01330997170252694</v>
+        <v>0.01367632386051955</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02286900517566701</v>
+        <v>0.02323949221164649</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -6754,19 +6754,19 @@
         <v>107612</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87505</v>
+        <v>88685</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132119</v>
+        <v>129396</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03052048144244321</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02481805954737949</v>
+        <v>0.02515262584705445</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0374711632437058</v>
+        <v>0.03669905027492844</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -6775,19 +6775,19 @@
         <v>168078</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143454</v>
+        <v>144335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194433</v>
+        <v>199743</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0243613628413565</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02079224106847586</v>
+        <v>0.020919943610028</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02818122053122632</v>
+        <v>0.02895081822828222</v>
       </c>
     </row>
     <row r="26">
@@ -6804,19 +6804,19 @@
         <v>105226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86803</v>
+        <v>87572</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>125260</v>
+        <v>127426</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03119182960906899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02573088955858324</v>
+        <v>0.02595876179687002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03713045746797165</v>
+        <v>0.03777254113959986</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>180</v>
@@ -6825,19 +6825,19 @@
         <v>209583</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>183994</v>
+        <v>180848</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>242991</v>
+        <v>240963</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05944126233747286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05218373608705473</v>
+        <v>0.05129171852239574</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06891652839459327</v>
+        <v>0.06834119356113344</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>282</v>
@@ -6846,19 +6846,19 @@
         <v>314809</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>277571</v>
+        <v>278515</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>350809</v>
+        <v>353200</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04562848842656696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04023117955050123</v>
+        <v>0.04036800273084581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05084640089987</v>
+        <v>0.0511930097307404</v>
       </c>
     </row>
     <row r="27">
@@ -6875,19 +6875,19 @@
         <v>420908</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>382260</v>
+        <v>384689</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>461592</v>
+        <v>460245</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1247686780506553</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1133122797867669</v>
+        <v>0.1140323110359392</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1368285608448338</v>
+        <v>0.1364290964147253</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>530</v>
@@ -6896,19 +6896,19 @@
         <v>577233</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>532040</v>
+        <v>530596</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>621981</v>
+        <v>621937</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1637131139552138</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1508955773184358</v>
+        <v>0.1504860091261175</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1764045601986861</v>
+        <v>0.1763919682647655</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>948</v>
@@ -6917,19 +6917,19 @@
         <v>998141</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>940935</v>
+        <v>937975</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1060392</v>
+        <v>1064345</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1446709373065989</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1363794628524893</v>
+        <v>0.1359504979806747</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1536936092369473</v>
+        <v>0.1542665248169557</v>
       </c>
     </row>
     <row r="28">
@@ -6946,19 +6946,19 @@
         <v>674106</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>629876</v>
+        <v>624529</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>726049</v>
+        <v>719462</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1998235302599397</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1867124805184178</v>
+        <v>0.1851275299937766</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2152209055960145</v>
+        <v>0.2132680974876287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>654</v>
@@ -6967,19 +6967,19 @@
         <v>693814</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>647139</v>
+        <v>650062</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>744028</v>
+        <v>743746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1967775549641421</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1835396748353582</v>
+        <v>0.1843685855361237</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2110191450609292</v>
+        <v>0.2109390282768636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1308</v>
@@ -6988,19 +6988,19 @@
         <v>1367920</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1297280</v>
+        <v>1299918</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1433414</v>
+        <v>1438303</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1982669076355235</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1880282486228071</v>
+        <v>0.1884106105235466</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2077595226955885</v>
+        <v>0.2084681378170903</v>
       </c>
     </row>
     <row r="29">
@@ -7017,19 +7017,19 @@
         <v>953781</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>905053</v>
+        <v>902315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1013015</v>
+        <v>1005277</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2827268398996894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2682825066125777</v>
+        <v>0.26747096007791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3002854721591258</v>
+        <v>0.2979917004002643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>901</v>
@@ -7038,19 +7038,19 @@
         <v>940626</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>886497</v>
+        <v>884760</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>989685</v>
+        <v>991120</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2667776098001935</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2514258327676265</v>
+        <v>0.2509330338872267</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2806916005280913</v>
+        <v>0.2810987298210396</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1801</v>
@@ -7059,19 +7059,19 @@
         <v>1894407</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1817709</v>
+        <v>1808039</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1969476</v>
+        <v>1973102</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2745761065535759</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2634594233843043</v>
+        <v>0.2620578280664355</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2854566279311136</v>
+        <v>0.2859822311093536</v>
       </c>
     </row>
     <row r="30">
@@ -7088,19 +7088,19 @@
         <v>1159020</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1102601</v>
+        <v>1104795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1213800</v>
+        <v>1214534</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3435650683428198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3268411991055625</v>
+        <v>0.3274912999369963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3598034442052198</v>
+        <v>0.3600211500130556</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>959</v>
@@ -7109,19 +7109,19 @@
         <v>997013</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>945230</v>
+        <v>947063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1056176</v>
+        <v>1056028</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2827699775005345</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2680832993197471</v>
+        <v>0.2686032657215263</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2995497360643173</v>
+        <v>0.2995075473287855</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2037</v>
@@ -7130,19 +7130,19 @@
         <v>2156033</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2075087</v>
+        <v>2075521</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2237315</v>
+        <v>2240880</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3124961972363783</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3007639750358551</v>
+        <v>0.3008268242824468</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3242773691793286</v>
+        <v>0.3247940237165158</v>
       </c>
     </row>
     <row r="31">
@@ -7473,19 +7473,19 @@
         <v>23954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16874</v>
+        <v>16963</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34507</v>
+        <v>33840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04147627741766292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02921653027964587</v>
+        <v>0.02937155349065774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05974841398894384</v>
+        <v>0.05859322299585611</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -7494,19 +7494,19 @@
         <v>68907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57751</v>
+        <v>57210</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79931</v>
+        <v>81459</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08393751751304723</v>
+        <v>0.08393751751304722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07034792155162328</v>
+        <v>0.0696888108211902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09736551679449962</v>
+        <v>0.09922734338486738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>175</v>
@@ -7515,19 +7515,19 @@
         <v>92861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79292</v>
+        <v>80207</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107014</v>
+        <v>108123</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06640190720440889</v>
+        <v>0.06640190720440887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05669874187014418</v>
+        <v>0.05735287683892185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07652178619908004</v>
+        <v>0.07731504598819985</v>
       </c>
     </row>
     <row r="5">
@@ -7544,19 +7544,19 @@
         <v>52911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41882</v>
+        <v>41315</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67982</v>
+        <v>67685</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09161470001451781</v>
+        <v>0.0916147000145178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0725174369638719</v>
+        <v>0.07153547808838703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1177095164593075</v>
+        <v>0.1171948875378356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -7565,19 +7565,19 @@
         <v>92785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80437</v>
+        <v>81148</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110023</v>
+        <v>108467</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1130232907939277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09798159196225886</v>
+        <v>0.09884857439637712</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1340213082579232</v>
+        <v>0.1321266760093288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>231</v>
@@ -7586,19 +7586,19 @@
         <v>145696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128154</v>
+        <v>127254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166480</v>
+        <v>164452</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1041819874235711</v>
+        <v>0.1041819874235712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09163810940066695</v>
+        <v>0.09099473821019882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1190437997723407</v>
+        <v>0.1175934765682413</v>
       </c>
     </row>
     <row r="6">
@@ -7615,19 +7615,19 @@
         <v>106515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>89125</v>
+        <v>89877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123549</v>
+        <v>124368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1844283321286021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1543184690241164</v>
+        <v>0.1556194007376731</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2139214555291161</v>
+        <v>0.2153395209609842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -7636,19 +7636,19 @@
         <v>193486</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>177109</v>
+        <v>174440</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>213632</v>
+        <v>211052</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2356902382714091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2157404536800576</v>
+        <v>0.2124899595078273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2602296247830885</v>
+        <v>0.2570875865231418</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>481</v>
@@ -7657,19 +7657,19 @@
         <v>300001</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274075</v>
+        <v>274369</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>326466</v>
+        <v>325407</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.214520135660676</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1959810010484673</v>
+        <v>0.196191365242898</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2334442869874125</v>
+        <v>0.2326870123320003</v>
       </c>
     </row>
     <row r="7">
@@ -7686,19 +7686,19 @@
         <v>111226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95157</v>
+        <v>94800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133462</v>
+        <v>132301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1925848464709626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1647629025032396</v>
+        <v>0.1641438494184422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2310859729048473</v>
+        <v>0.2290764247457727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>286</v>
@@ -7707,19 +7707,19 @@
         <v>163025</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145826</v>
+        <v>145105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180320</v>
+        <v>181214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1985846706445631</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1776335989207195</v>
+        <v>0.1767555750906798</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2196514780242675</v>
+        <v>0.2207404307618148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>423</v>
@@ -7728,19 +7728,19 @@
         <v>274251</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249665</v>
+        <v>249312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>299319</v>
+        <v>300002</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1961068678674359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1785262679811399</v>
+        <v>0.1782742597127753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2140323897426567</v>
+        <v>0.2145205866096992</v>
       </c>
     </row>
     <row r="8">
@@ -7757,19 +7757,19 @@
         <v>131113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113373</v>
+        <v>111121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152648</v>
+        <v>151579</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2270195904675979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1963033317694732</v>
+        <v>0.1924024711483505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2643058802322342</v>
+        <v>0.2624552163061846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -7778,19 +7778,19 @@
         <v>174864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>155600</v>
+        <v>157102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193382</v>
+        <v>194967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2130060037980861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1895405066288078</v>
+        <v>0.1913695778304789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2355634065766209</v>
+        <v>0.2374942391372385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>449</v>
@@ -7799,19 +7799,19 @@
         <v>305977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>279473</v>
+        <v>281091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>334171</v>
+        <v>331831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.218793324053238</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1998411721145084</v>
+        <v>0.2009979676603016</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.238953382802761</v>
+        <v>0.2372802896074794</v>
       </c>
     </row>
     <row r="9">
@@ -7828,19 +7828,19 @@
         <v>151822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129836</v>
+        <v>130744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173397</v>
+        <v>174056</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2628762535006567</v>
+        <v>0.2628762535006568</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2248079783219377</v>
+        <v>0.2263799713170111</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3002330713355907</v>
+        <v>0.3013729523834926</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>196</v>
@@ -7849,19 +7849,19 @@
         <v>127867</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111750</v>
+        <v>111393</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>146058</v>
+        <v>145326</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1557582789789668</v>
+        <v>0.1557582789789667</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1361254945938905</v>
+        <v>0.1356909695662174</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1779171919888316</v>
+        <v>0.1770248196137996</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>356</v>
@@ -7870,19 +7870,19 @@
         <v>279689</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>251744</v>
+        <v>253776</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>309670</v>
+        <v>308455</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1999957777906699</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1800130477041942</v>
+        <v>0.181466239977496</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2214338533577044</v>
+        <v>0.2205650225083501</v>
       </c>
     </row>
     <row r="10">
@@ -7974,19 +7974,19 @@
         <v>29884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20932</v>
+        <v>20064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43940</v>
+        <v>41925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01339727893482066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009384188371725912</v>
+        <v>0.008995131210202222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01969889634880733</v>
+        <v>0.01879565380298099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -7995,19 +7995,19 @@
         <v>37772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27781</v>
+        <v>28636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52848</v>
+        <v>52778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01740365081822842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01280008074411031</v>
+        <v>0.01319427509756321</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02434984322818374</v>
+        <v>0.0243175444629821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -8016,19 +8016,19 @@
         <v>67656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52244</v>
+        <v>53481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86448</v>
+        <v>86943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01537305953967778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01187111688023609</v>
+        <v>0.01215224372568078</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01964314369495173</v>
+        <v>0.01975552033222914</v>
       </c>
     </row>
     <row r="12">
@@ -8045,19 +8045,19 @@
         <v>77458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61975</v>
+        <v>60591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95503</v>
+        <v>98764</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0347255106086741</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02778458578791876</v>
+        <v>0.02716388449058544</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04281566547153175</v>
+        <v>0.04427771105283424</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -8066,19 +8066,19 @@
         <v>102082</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>86078</v>
+        <v>85996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118940</v>
+        <v>120589</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04703457788311224</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03966090124516843</v>
+        <v>0.03962293681866601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05480204909150795</v>
+        <v>0.05556182531209305</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -8087,19 +8087,19 @@
         <v>179539</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157428</v>
+        <v>153847</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>207654</v>
+        <v>203570</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04079584483936217</v>
+        <v>0.04079584483936219</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03577148849485601</v>
+        <v>0.03495795780893405</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04718413435952134</v>
+        <v>0.04625610020220677</v>
       </c>
     </row>
     <row r="13">
@@ -8116,19 +8116,19 @@
         <v>240505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>210684</v>
+        <v>210867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269534</v>
+        <v>272280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1078222756103003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0944530470996566</v>
+        <v>0.09453532834192876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1208367695204585</v>
+        <v>0.1220676042736086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>550</v>
@@ -8137,19 +8137,19 @@
         <v>341043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>313340</v>
+        <v>312014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>371761</v>
+        <v>370192</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1571367996613757</v>
+        <v>0.1571367996613756</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1443726120754551</v>
+        <v>0.1437613539351404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1712900206794235</v>
+        <v>0.1705673972386976</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>815</v>
@@ -8158,19 +8158,19 @@
         <v>581548</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>540399</v>
+        <v>539637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>625456</v>
+        <v>627583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1321422047115894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1227922250480903</v>
+        <v>0.1226190518717885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1421192669555306</v>
+        <v>0.1426025769302396</v>
       </c>
     </row>
     <row r="14">
@@ -8187,19 +8187,19 @@
         <v>323822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>288934</v>
+        <v>290527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361037</v>
+        <v>364079</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1451748385981586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1295341441513433</v>
+        <v>0.1302481064257424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1618588259751934</v>
+        <v>0.1632229011764878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>442</v>
@@ -8208,19 +8208,19 @@
         <v>308811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>281050</v>
+        <v>279093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>344554</v>
+        <v>339984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1422857129294605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1294946730963953</v>
+        <v>0.1285930701430275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1587543295063471</v>
+        <v>0.1566487721151434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -8229,19 +8229,19 @@
         <v>632633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>589626</v>
+        <v>581420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687709</v>
+        <v>677655</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1437500386476474</v>
+        <v>0.1437500386476475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1339777805502251</v>
+        <v>0.132113177458345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1562645913087812</v>
+        <v>0.1539800537668781</v>
       </c>
     </row>
     <row r="15">
@@ -8258,19 +8258,19 @@
         <v>623192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>575499</v>
+        <v>577048</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>673054</v>
+        <v>675484</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2793872125609806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2580058069214126</v>
+        <v>0.2587003328776977</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3017414949801622</v>
+        <v>0.3028306305397684</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>811</v>
@@ -8279,19 +8279,19 @@
         <v>598721</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>559589</v>
+        <v>562862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>636820</v>
+        <v>638771</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.275862853487073</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2578327349641489</v>
+        <v>0.2593405229329273</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2934171094132034</v>
+        <v>0.2943161493324529</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1381</v>
@@ -8300,19 +8300,19 @@
         <v>1221913</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1160495</v>
+        <v>1159987</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1287725</v>
+        <v>1285927</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2776491411823306</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2636935134796911</v>
+        <v>0.263577988055069</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2926032199032479</v>
+        <v>0.292194722094897</v>
       </c>
     </row>
     <row r="16">
@@ -8329,19 +8329,19 @@
         <v>935707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>878997</v>
+        <v>879767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>992498</v>
+        <v>990112</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4194928836870658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3940691124209054</v>
+        <v>0.394414341669458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4449534360274443</v>
+        <v>0.4438838957505756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>909</v>
@@ -8350,19 +8350,19 @@
         <v>781929</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>739234</v>
+        <v>735962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>823173</v>
+        <v>820500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3602764052207503</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3406045723237783</v>
+        <v>0.3390970547586118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3792798123325978</v>
+        <v>0.378048065643332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1639</v>
@@ -8371,19 +8371,19 @@
         <v>1717635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1648532</v>
+        <v>1645581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1791121</v>
+        <v>1790907</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3902897110793925</v>
+        <v>0.3902897110793926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3745877416492546</v>
+        <v>0.3739170615409299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4069874669038032</v>
+        <v>0.4069387974471755</v>
       </c>
     </row>
     <row r="17">
@@ -8475,19 +8475,19 @@
         <v>5232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1577</v>
+        <v>1337</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14480</v>
+        <v>14393</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.007351992925539019</v>
+        <v>0.007351992925539018</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002216377142662933</v>
+        <v>0.001879271579940773</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02034860310955887</v>
+        <v>0.02022618538276687</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -8496,19 +8496,19 @@
         <v>6314</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3303</v>
+        <v>3044</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11343</v>
+        <v>11144</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008608806410000851</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004503444394131815</v>
+        <v>0.004150392643041973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01546709751373067</v>
+        <v>0.01519553533991981</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -8517,19 +8517,19 @@
         <v>11545</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6323</v>
+        <v>6330</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22332</v>
+        <v>22415</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.007989877471904529</v>
+        <v>0.00798987747190453</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004375775412597776</v>
+        <v>0.004381007545198791</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01545524595978027</v>
+        <v>0.01551250723609341</v>
       </c>
     </row>
     <row r="19">
@@ -8546,19 +8546,19 @@
         <v>35085</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23945</v>
+        <v>23766</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52168</v>
+        <v>50868</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04930589305782027</v>
+        <v>0.04930589305782025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03364968339364487</v>
+        <v>0.03339897241761402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07331216318423238</v>
+        <v>0.07148470463615911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -8567,19 +8567,19 @@
         <v>27400</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19370</v>
+        <v>19392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39931</v>
+        <v>41126</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03736107048502808</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02641177856933482</v>
+        <v>0.02644203913970198</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05444765597655577</v>
+        <v>0.05607786278961107</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -8588,19 +8588,19 @@
         <v>62485</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46730</v>
+        <v>46421</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82000</v>
+        <v>80655</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04324340421404032</v>
+        <v>0.04324340421404033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03233990162870638</v>
+        <v>0.03212569959312133</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05674851037339625</v>
+        <v>0.05581785460676128</v>
       </c>
     </row>
     <row r="20">
@@ -8617,19 +8617,19 @@
         <v>82481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67873</v>
+        <v>66644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102309</v>
+        <v>101080</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1159118522676149</v>
+        <v>0.1159118522676148</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09538203485190966</v>
+        <v>0.09365518297806717</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1437762679622527</v>
+        <v>0.1420485219188796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -8638,19 +8638,19 @@
         <v>118707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100123</v>
+        <v>100777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137520</v>
+        <v>137955</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1618628256120921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1365232265188662</v>
+        <v>0.1374146021753041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1875156507317188</v>
+        <v>0.1881078883264371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -8659,19 +8659,19 @@
         <v>201188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177616</v>
+        <v>178367</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>227115</v>
+        <v>227998</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1392338615786835</v>
+        <v>0.1392338615786836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.122920459373237</v>
+        <v>0.1234405003286093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1571762650018939</v>
+        <v>0.1577878222245268</v>
       </c>
     </row>
     <row r="21">
@@ -8688,19 +8688,19 @@
         <v>102939</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>85326</v>
+        <v>85733</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>124458</v>
+        <v>122460</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1446614379435087</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1199093465707663</v>
+        <v>0.1204813712565383</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1749021027760927</v>
+        <v>0.1720943097884017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>191</v>
@@ -8709,19 +8709,19 @@
         <v>127838</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>111356</v>
+        <v>111033</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>145752</v>
+        <v>147567</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1743136403152498</v>
+        <v>0.1743136403152499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1518391277190592</v>
+        <v>0.1513990115588619</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1987394253748355</v>
+        <v>0.2012150941253614</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>301</v>
@@ -8730,19 +8730,19 @@
         <v>230777</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>206279</v>
+        <v>207853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>257868</v>
+        <v>258456</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.159711150484376</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1427570388747322</v>
+        <v>0.1438462114126206</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1784593453599549</v>
+        <v>0.1788666605281656</v>
       </c>
     </row>
     <row r="22">
@@ -8759,19 +8759,19 @@
         <v>205527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179798</v>
+        <v>179581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>231490</v>
+        <v>233836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2888283853160625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2526716212996588</v>
+        <v>0.2523667479564393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3253147904564819</v>
+        <v>0.3286113480653608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>305</v>
@@ -8780,19 +8780,19 @@
         <v>221379</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>200370</v>
+        <v>200449</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>243358</v>
+        <v>244758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3018613845767911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.273214756806349</v>
+        <v>0.2733221893789607</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.33183134810226</v>
+        <v>0.3337395490223398</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>508</v>
@@ -8801,19 +8801,19 @@
         <v>426906</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>395393</v>
+        <v>393986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>461225</v>
+        <v>463125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2954431685945629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2736348777828336</v>
+        <v>0.2726608618605796</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3191940252120743</v>
+        <v>0.3205087222681046</v>
       </c>
     </row>
     <row r="23">
@@ -8830,19 +8830,19 @@
         <v>280323</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251530</v>
+        <v>253603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>308995</v>
+        <v>310754</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3939404384894546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3534773827155701</v>
+        <v>0.3563907084466614</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4342343180947055</v>
+        <v>0.4367058747650783</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -8851,19 +8851,19 @@
         <v>231742</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>209057</v>
+        <v>209167</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256360</v>
+        <v>255142</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3159922726008381</v>
+        <v>0.315992272600838</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2850597248385581</v>
+        <v>0.2852092064457189</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3495597362433414</v>
+        <v>0.3478994472799209</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>528</v>
@@ -8872,19 +8872,19 @@
         <v>512065</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>476122</v>
+        <v>473775</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>547667</v>
+        <v>549117</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3543785376564327</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3295035329711429</v>
+        <v>0.3278795460247039</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3790170633161656</v>
+        <v>0.380020160157954</v>
       </c>
     </row>
     <row r="24">
@@ -8976,19 +8976,19 @@
         <v>59069</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44740</v>
+        <v>45911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75774</v>
+        <v>76307</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01678252773433164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01271119059655919</v>
+        <v>0.01304391716660751</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02152866211047758</v>
+        <v>0.02168013981149964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>202</v>
@@ -8997,19 +8997,19 @@
         <v>112993</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96777</v>
+        <v>96833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>131687</v>
+        <v>131189</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0303363261258553</v>
+        <v>0.03033632612585529</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02598277931840474</v>
+        <v>0.02599771383786363</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03535538889092111</v>
+        <v>0.03522165319183549</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>273</v>
@@ -9018,19 +9018,19 @@
         <v>172062</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>151670</v>
+        <v>151577</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196734</v>
+        <v>196964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02375117785507374</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0209362018618806</v>
+        <v>0.02092349046514936</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02715677426731016</v>
+        <v>0.02718860668096129</v>
       </c>
     </row>
     <row r="26">
@@ -9047,19 +9047,19 @@
         <v>165454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140052</v>
+        <v>142452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>191865</v>
+        <v>194463</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0470081334413685</v>
+        <v>0.04700813344136849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03979105841135778</v>
+        <v>0.0404728332771501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05451174317429124</v>
+        <v>0.05524992994224639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>356</v>
@@ -9068,19 +9068,19 @@
         <v>222266</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>198700</v>
+        <v>198323</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248483</v>
+        <v>247720</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05967409191670738</v>
+        <v>0.05967409191670737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05334701388047158</v>
+        <v>0.05324574406984336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06671260480980536</v>
+        <v>0.06650791689363908</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>533</v>
@@ -9089,19 +9089,19 @@
         <v>387721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355075</v>
+        <v>353109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>428654</v>
+        <v>422330</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05352030298298452</v>
+        <v>0.05352030298298453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04901394709256841</v>
+        <v>0.04874257417371639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05917063332651373</v>
+        <v>0.05829768084174294</v>
       </c>
     </row>
     <row r="27">
@@ -9118,19 +9118,19 @@
         <v>429501</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>389901</v>
+        <v>389549</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>467721</v>
+        <v>469323</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1220279452461048</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1107769800571373</v>
+        <v>0.1106767958117651</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1328867374867807</v>
+        <v>0.1333418569918594</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1062</v>
@@ -9139,19 +9139,19 @@
         <v>653236</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>619575</v>
+        <v>615807</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>695789</v>
+        <v>695983</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1753808740564441</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1663435002395125</v>
+        <v>0.1653317453732712</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1868053181017141</v>
+        <v>0.1868574929706866</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1560</v>
@@ -9160,19 +9160,19 @@
         <v>1082738</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1030214</v>
+        <v>1025012</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1137681</v>
+        <v>1137435</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1494592145520311</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1422088992716646</v>
+        <v>0.141490843940158</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1570435672156921</v>
+        <v>0.1570096019988779</v>
       </c>
     </row>
     <row r="28">
@@ -9189,19 +9189,19 @@
         <v>537987</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>493625</v>
+        <v>497698</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>585069</v>
+        <v>587694</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1528504820287644</v>
+        <v>0.1528504820287643</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1402464376230366</v>
+        <v>0.1414038115063145</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1662273005754336</v>
+        <v>0.1669730660357814</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>919</v>
@@ -9210,19 +9210,19 @@
         <v>599674</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>558232</v>
+        <v>556181</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>634284</v>
+        <v>634317</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1610004884453649</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1498742039493835</v>
+        <v>0.1493234933854838</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1702925848716894</v>
+        <v>0.1703013508278866</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1483</v>
@@ -9231,19 +9231,19 @@
         <v>1137661</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1077946</v>
+        <v>1078975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1198344</v>
+        <v>1194148</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1570407865883047</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1487977812856066</v>
+        <v>0.1489398077948489</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1654172814460723</v>
+        <v>0.164838156219246</v>
       </c>
     </row>
     <row r="29">
@@ -9260,19 +9260,19 @@
         <v>959832</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>903551</v>
+        <v>903533</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1026794</v>
+        <v>1021546</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2727030352504995</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2567128715573845</v>
+        <v>0.2567076969529974</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2917281633096187</v>
+        <v>0.2902369759550921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1414</v>
@@ -9281,19 +9281,19 @@
         <v>994964</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>943842</v>
+        <v>950144</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1039358</v>
+        <v>1050585</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2671279797863303</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2534025447464923</v>
+        <v>0.2550944999997871</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2790468741054057</v>
+        <v>0.2820610560644591</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2338</v>
@@ -9302,19 +9302,19 @@
         <v>1954796</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1878735</v>
+        <v>1875538</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2035439</v>
+        <v>2031888</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2698366350126279</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2593373913494971</v>
+        <v>0.2588960230506232</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2809685049072891</v>
+        <v>0.2804783351003051</v>
       </c>
     </row>
     <row r="30">
@@ -9331,19 +9331,19 @@
         <v>1367852</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1299354</v>
+        <v>1306133</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1434026</v>
+        <v>1437324</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3886278762989312</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3691665137811069</v>
+        <v>0.3710926109253055</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.407429180590194</v>
+        <v>0.4083661258701555</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1394</v>
@@ -9352,19 +9352,19 @@
         <v>1141539</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1094558</v>
+        <v>1091332</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1197257</v>
+        <v>1195994</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.306480239669298</v>
+        <v>0.3064802396692979</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2938667576560773</v>
+        <v>0.2930006319599602</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3214393979460597</v>
+        <v>0.3211004359910665</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2523</v>
@@ -9373,19 +9373,19 @@
         <v>2509390</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2423436</v>
+        <v>2427812</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2600436</v>
+        <v>2599382</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3463918830089779</v>
+        <v>0.346391883008978</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3345268814788519</v>
+        <v>0.3351309544326539</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3589596588563054</v>
+        <v>0.358814229589083</v>
       </c>
     </row>
     <row r="31">
